--- a/BDS/aveTotalArea_MVPA.xlsx
+++ b/BDS/aveTotalArea_MVPA.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12340"/>
   </bookViews>
   <sheets>
-    <sheet name="Average Total Area" sheetId="1" r:id="rId1"/>
+    <sheet name="Average Total Area" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -50,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,12 +63,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -76,8 +145,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -93,7 +169,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,69 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,20 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -198,15 +205,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,7 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,13 +245,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,19 +281,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +323,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,19 +347,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,90 +395,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -415,26 +409,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,7 +448,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,8 +471,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,32 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,148 +511,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -681,13 +660,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,20 +989,20 @@
   <dimension ref="A1:E645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.5384615384615" customWidth="1"/>
-    <col min="2" max="2" width="21.8461538461538" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="7.53846153846154" customWidth="1"/>
-    <col min="5" max="5" width="8.23076923076923" customWidth="1"/>
+    <col min="1" max="1" width="19.5384615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.53846153846154" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.23076923076923" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
